--- a/raw_data/amr.xlsx
+++ b/raw_data/amr.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mph slide\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mph slide\HUB BIO\hub\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83402D5A-5F46-4930-9842-3A86FA79C872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698822AF-E320-4E00-A7BD-DC1951BD76F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="122">
   <si>
     <t>Yes</t>
   </si>
@@ -373,9 +373,6 @@
     <t>Secondary</t>
   </si>
   <si>
-    <t xml:space="preserve">Self emloyed </t>
-  </si>
-  <si>
     <t>Master's</t>
   </si>
   <si>
@@ -392,15 +389,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Extended family </t>
-  </si>
-  <si>
-    <t>Low (less than 50000 BDT)</t>
-  </si>
-  <si>
-    <t>Low (greater than 50000 BDT)</t>
-  </si>
-  <si>
-    <t>Middle (less than 30000 BDT)</t>
   </si>
 </sst>
 </file>
@@ -816,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1264,7 +1252,7 @@
         <v>115</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
         <v>41</v>
@@ -1466,8 +1454,8 @@
       <c r="H4" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="1">
-        <v>2</v>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>17</v>
@@ -1637,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -2389,7 +2377,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -2583,7 +2571,7 @@
         <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F10" t="s">
         <v>33</v>
@@ -2953,13 +2941,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F12" t="s">
         <v>5</v>
@@ -3329,10 +3317,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
@@ -3346,8 +3334,8 @@
       <c r="H14" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="1">
-        <v>3</v>
+      <c r="I14" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>17</v>
@@ -3534,8 +3522,8 @@
       <c r="H15" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="1">
-        <v>3</v>
+      <c r="I15" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>17</v>
@@ -3714,7 +3702,7 @@
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
         <v>16</v>
@@ -4081,7 +4069,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
@@ -4090,7 +4078,7 @@
         <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
         <v>16</v>
@@ -4098,8 +4086,8 @@
       <c r="H18" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="1">
-        <v>3</v>
+      <c r="I18" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>17</v>
@@ -4457,13 +4445,13 @@
         <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F20" t="s">
         <v>33</v>
@@ -5027,7 +5015,7 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -5038,8 +5026,8 @@
       <c r="H23" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="1">
-        <v>2</v>
+      <c r="I23" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>17</v>
@@ -5209,7 +5197,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
@@ -5218,7 +5206,7 @@
         <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
         <v>16</v>
@@ -5403,7 +5391,7 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F25" t="s">
         <v>33</v>
@@ -5591,7 +5579,7 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F26" t="s">
         <v>33</v>
@@ -5776,10 +5764,10 @@
         <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F27" t="s">
         <v>33</v>
@@ -5967,7 +5955,7 @@
         <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F28" t="s">
         <v>33</v>
@@ -6149,13 +6137,13 @@
         <v>16</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F29" t="s">
         <v>33</v>
@@ -6525,7 +6513,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D31" t="s">
         <v>24</v>
@@ -6713,19 +6701,19 @@
         <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D32" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" t="s">
         <v>120</v>
-      </c>
-      <c r="E32" t="s">
-        <v>121</v>
       </c>
       <c r="F32" t="s">
         <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H32" t="s">
         <v>6</v>
@@ -6901,7 +6889,7 @@
         <v>16</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
@@ -7095,19 +7083,19 @@
         <v>24</v>
       </c>
       <c r="E34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F34" t="s">
         <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H34" t="s">
         <v>26</v>
       </c>
       <c r="I34" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>36</v>
@@ -7277,19 +7265,19 @@
         <v>16</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D35" t="s">
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F35" t="s">
         <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H35" t="s">
         <v>6</v>
@@ -7471,13 +7459,13 @@
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F36" t="s">
         <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H36" t="s">
         <v>26</v>
@@ -7653,7 +7641,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" t="s">
         <v>20</v>
@@ -7662,7 +7650,7 @@
         <v>41</v>
       </c>
       <c r="F37" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
         <v>2</v>
@@ -8029,7 +8017,7 @@
         <v>16</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" t="s">
         <v>3</v>
@@ -8229,7 +8217,7 @@
         <v>5</v>
       </c>
       <c r="G40" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H40" t="s">
         <v>6</v>
